--- a/Code/Results/Cases/Case_1_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9899079195484317</v>
+        <v>1.030642544694266</v>
       </c>
       <c r="D2">
-        <v>1.032811889739114</v>
+        <v>1.044306156886103</v>
       </c>
       <c r="E2">
-        <v>1.009620712853994</v>
+        <v>1.04042930257216</v>
       </c>
       <c r="F2">
-        <v>1.025446607832154</v>
+        <v>1.051684690084117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048299839308327</v>
+        <v>1.034952914384028</v>
       </c>
       <c r="J2">
-        <v>1.012394730771561</v>
+        <v>1.035782660434934</v>
       </c>
       <c r="K2">
-        <v>1.043832272833883</v>
+        <v>1.047077578173522</v>
       </c>
       <c r="L2">
-        <v>1.020947623467311</v>
+        <v>1.043211676064769</v>
       </c>
       <c r="M2">
-        <v>1.03656245844077</v>
+        <v>1.054435508702294</v>
       </c>
       <c r="N2">
-        <v>1.013832447412555</v>
+        <v>1.037253590618683</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.994934316772495</v>
+        <v>1.031720982316364</v>
       </c>
       <c r="D3">
-        <v>1.035647294483873</v>
+        <v>1.044908063961058</v>
       </c>
       <c r="E3">
-        <v>1.013642278827115</v>
+        <v>1.041340039432241</v>
       </c>
       <c r="F3">
-        <v>1.029396902260517</v>
+        <v>1.052568465981809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049033750406605</v>
+        <v>1.035040230140196</v>
       </c>
       <c r="J3">
-        <v>1.015564036528722</v>
+        <v>1.036501980480662</v>
       </c>
       <c r="K3">
-        <v>1.045843507024351</v>
+        <v>1.047491242902842</v>
       </c>
       <c r="L3">
-        <v>1.02410352988502</v>
+        <v>1.043932570540555</v>
       </c>
       <c r="M3">
-        <v>1.03966696900023</v>
+        <v>1.05513179732754</v>
       </c>
       <c r="N3">
-        <v>1.017006253947416</v>
+        <v>1.037973932181383</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9981194125206836</v>
+        <v>1.032419455834217</v>
       </c>
       <c r="D4">
-        <v>1.037445225480461</v>
+        <v>1.045297293857799</v>
       </c>
       <c r="E4">
-        <v>1.016196699538744</v>
+        <v>1.041930120588173</v>
       </c>
       <c r="F4">
-        <v>1.031904734889405</v>
+        <v>1.05314075970318</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049487363993858</v>
+        <v>1.035095265534745</v>
       </c>
       <c r="J4">
-        <v>1.01757134655987</v>
+        <v>1.036967532284899</v>
       </c>
       <c r="K4">
-        <v>1.047111786231794</v>
+        <v>1.047757971813062</v>
       </c>
       <c r="L4">
-        <v>1.026103497135041</v>
+        <v>1.044399180545315</v>
       </c>
       <c r="M4">
-        <v>1.04163276298654</v>
+        <v>1.055582136257027</v>
       </c>
       <c r="N4">
-        <v>1.01901641458905</v>
+        <v>1.038440145122582</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9994429487430759</v>
+        <v>1.032713250099852</v>
       </c>
       <c r="D5">
-        <v>1.038192500138251</v>
+        <v>1.045460865933381</v>
       </c>
       <c r="E5">
-        <v>1.017259547404101</v>
+        <v>1.042178374919821</v>
       </c>
       <c r="F5">
-        <v>1.032947850045891</v>
+        <v>1.053381453954182</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049673048438916</v>
+        <v>1.035118051365076</v>
       </c>
       <c r="J5">
-        <v>1.018405183502713</v>
+        <v>1.037163274538273</v>
       </c>
       <c r="K5">
-        <v>1.047637224379669</v>
+        <v>1.047869878398807</v>
       </c>
       <c r="L5">
-        <v>1.026934541516377</v>
+        <v>1.044595376873837</v>
       </c>
       <c r="M5">
-        <v>1.042449192065191</v>
+        <v>1.055771408185176</v>
       </c>
       <c r="N5">
-        <v>1.019851435675994</v>
+        <v>1.038636165352408</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9996642865815504</v>
+        <v>1.032762588593325</v>
       </c>
       <c r="D6">
-        <v>1.038317474340406</v>
+        <v>1.045488326826387</v>
       </c>
       <c r="E6">
-        <v>1.0174373690207</v>
+        <v>1.042220068688818</v>
       </c>
       <c r="F6">
-        <v>1.033122348867773</v>
+        <v>1.053421873518082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049703933820225</v>
+        <v>1.035121856602268</v>
       </c>
       <c r="J6">
-        <v>1.018544610097315</v>
+        <v>1.037196141931905</v>
       </c>
       <c r="K6">
-        <v>1.047724998662157</v>
+        <v>1.04788865470323</v>
       </c>
       <c r="L6">
-        <v>1.027073515834145</v>
+        <v>1.044628321041791</v>
       </c>
       <c r="M6">
-        <v>1.042585696993578</v>
+        <v>1.055803184776503</v>
       </c>
       <c r="N6">
-        <v>1.019991060272353</v>
+        <v>1.038669079421509</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9981371576745152</v>
+        <v>1.032423380914785</v>
       </c>
       <c r="D7">
-        <v>1.037455244004536</v>
+        <v>1.045299479754479</v>
       </c>
       <c r="E7">
-        <v>1.016210944174506</v>
+        <v>1.041933437052083</v>
       </c>
       <c r="F7">
-        <v>1.031918716477406</v>
+        <v>1.053143975472585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049489864721039</v>
+        <v>1.035095571380301</v>
       </c>
       <c r="J7">
-        <v>1.017582527296908</v>
+        <v>1.036970147707756</v>
       </c>
       <c r="K7">
-        <v>1.047118837363302</v>
+        <v>1.047759468004924</v>
       </c>
       <c r="L7">
-        <v>1.026114639430996</v>
+        <v>1.044401801999664</v>
       </c>
       <c r="M7">
-        <v>1.041643711007348</v>
+        <v>1.055584665517909</v>
       </c>
       <c r="N7">
-        <v>1.019027611204018</v>
+        <v>1.038442764259639</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9916209484511318</v>
+        <v>1.031006872587745</v>
       </c>
       <c r="D8">
-        <v>1.033777880342752</v>
+        <v>1.044509623746641</v>
       </c>
       <c r="E8">
-        <v>1.010989973053084</v>
+        <v>1.040736929617138</v>
       </c>
       <c r="F8">
-        <v>1.026791857522421</v>
+        <v>1.051983276099613</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048552322179335</v>
+        <v>1.034982725852348</v>
       </c>
       <c r="J8">
-        <v>1.013475033015922</v>
+        <v>1.036025736231226</v>
       </c>
       <c r="K8">
-        <v>1.044518950865872</v>
+        <v>1.047217571952792</v>
       </c>
       <c r="L8">
-        <v>1.02202310786066</v>
+        <v>1.04345527564055</v>
       </c>
       <c r="M8">
-        <v>1.037620744902714</v>
+        <v>1.054670864741075</v>
       </c>
       <c r="N8">
-        <v>1.014914283810016</v>
+        <v>1.037497011610487</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9795924172442748</v>
+        <v>1.028515806159424</v>
       </c>
       <c r="D9">
-        <v>1.027005566497663</v>
+        <v>1.043116001091382</v>
       </c>
       <c r="E9">
-        <v>1.001404161221914</v>
+        <v>1.038634497321932</v>
       </c>
       <c r="F9">
-        <v>1.01736994277024</v>
+        <v>1.049941341112887</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046733529864504</v>
+        <v>1.034772694782719</v>
       </c>
       <c r="J9">
-        <v>1.005886989075349</v>
+        <v>1.034362379801828</v>
       </c>
       <c r="K9">
-        <v>1.039675181527704</v>
+        <v>1.046255538968038</v>
       </c>
       <c r="L9">
-        <v>1.014474497896092</v>
+        <v>1.04178850491329</v>
       </c>
       <c r="M9">
-        <v>1.030187353522204</v>
+        <v>1.053059101217389</v>
       </c>
       <c r="N9">
-        <v>1.007315463976687</v>
+        <v>1.03583129302417</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9711603714356488</v>
+        <v>1.026858464983114</v>
       </c>
       <c r="D10">
-        <v>1.022278158273732</v>
+        <v>1.042185812911755</v>
       </c>
       <c r="E10">
-        <v>0.9947248358691816</v>
+        <v>1.037236943474344</v>
       </c>
       <c r="F10">
-        <v>1.010801105659335</v>
+        <v>1.048582393682214</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045403249457617</v>
+        <v>1.034625192426621</v>
       </c>
       <c r="J10">
-        <v>1.000566857284204</v>
+        <v>1.033254055326025</v>
       </c>
       <c r="K10">
-        <v>1.036256495935763</v>
+        <v>1.045609454921895</v>
       </c>
       <c r="L10">
-        <v>1.009189992740141</v>
+        <v>1.040678128409117</v>
       </c>
       <c r="M10">
-        <v>1.024978043377708</v>
+        <v>1.051983631093532</v>
       </c>
       <c r="N10">
-        <v>1.00198777698817</v>
+        <v>1.034721394600485</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9674000095622621</v>
+        <v>1.026141617802582</v>
       </c>
       <c r="D11">
-        <v>1.020176860898091</v>
+        <v>1.041782789851109</v>
       </c>
       <c r="E11">
-        <v>0.9917569641558464</v>
+        <v>1.036632763419406</v>
       </c>
       <c r="F11">
-        <v>1.0078819978714</v>
+        <v>1.047994526534114</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044797912681496</v>
+        <v>1.034559555460087</v>
       </c>
       <c r="J11">
-        <v>0.9981948128747787</v>
+        <v>1.032774282050333</v>
       </c>
       <c r="K11">
-        <v>1.034728045011142</v>
+        <v>1.045328587199913</v>
       </c>
       <c r="L11">
-        <v>1.006836024481119</v>
+        <v>1.040197522799414</v>
       </c>
       <c r="M11">
-        <v>1.022656786468502</v>
+        <v>1.051517726597053</v>
       </c>
       <c r="N11">
-        <v>0.9996123640036061</v>
+        <v>1.03424093999171</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9659857888318651</v>
+        <v>1.025875467852431</v>
       </c>
       <c r="D12">
-        <v>1.019387831848024</v>
+        <v>1.041633053953051</v>
       </c>
       <c r="E12">
-        <v>0.9906425327680425</v>
+        <v>1.036408490645931</v>
       </c>
       <c r="F12">
-        <v>1.006785877658092</v>
+        <v>1.047776252832217</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04456853109202</v>
+        <v>1.034534910021946</v>
       </c>
       <c r="J12">
-        <v>0.9973028649338295</v>
+        <v>1.032596094126688</v>
       </c>
       <c r="K12">
-        <v>1.034152784953676</v>
+        <v>1.045224095009674</v>
       </c>
       <c r="L12">
-        <v>1.005951230039644</v>
+        <v>1.040019034409274</v>
       </c>
       <c r="M12">
-        <v>1.021784215574205</v>
+        <v>1.051344637122635</v>
       </c>
       <c r="N12">
-        <v>0.998719149394273</v>
+        <v>1.034062499020775</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9662899515318926</v>
+        <v>1.025932552535493</v>
       </c>
       <c r="D13">
-        <v>1.01955747250546</v>
+        <v>1.041665174376834</v>
       </c>
       <c r="E13">
-        <v>0.9908821377112196</v>
+        <v>1.036456591269195</v>
       </c>
       <c r="F13">
-        <v>1.007021544809829</v>
+        <v>1.04782306935486</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044617941489664</v>
+        <v>1.034540208531899</v>
       </c>
       <c r="J13">
-        <v>0.9974946924322707</v>
+        <v>1.032634315073589</v>
       </c>
       <c r="K13">
-        <v>1.0342765256675</v>
+        <v>1.045246516405036</v>
       </c>
       <c r="L13">
-        <v>1.006141502509345</v>
+        <v>1.040057319409514</v>
       </c>
       <c r="M13">
-        <v>1.021971861884224</v>
+        <v>1.051381766824186</v>
       </c>
       <c r="N13">
-        <v>0.9989112493097649</v>
+        <v>1.034100774245805</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9672834720429584</v>
+        <v>1.026119615337173</v>
       </c>
       <c r="D14">
-        <v>1.020111815331768</v>
+        <v>1.041770413343178</v>
       </c>
       <c r="E14">
-        <v>0.9916650943532955</v>
+        <v>1.03661422196635</v>
       </c>
       <c r="F14">
-        <v>1.007791637270799</v>
+        <v>1.047976482193239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044779045164409</v>
+        <v>1.034557523661859</v>
       </c>
       <c r="J14">
-        <v>0.9981213093948964</v>
+        <v>1.032759552545399</v>
       </c>
       <c r="K14">
-        <v>1.034680649120182</v>
+        <v>1.045319953210243</v>
       </c>
       <c r="L14">
-        <v>1.006763103100128</v>
+        <v>1.040182768278892</v>
       </c>
       <c r="M14">
-        <v>1.022584873690898</v>
+        <v>1.051503419609584</v>
       </c>
       <c r="N14">
-        <v>0.9995387561403516</v>
+        <v>1.034226189569189</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9678932672372477</v>
+        <v>1.02623488667175</v>
       </c>
       <c r="D15">
-        <v>1.020452225039503</v>
+        <v>1.041835249931137</v>
       </c>
       <c r="E15">
-        <v>0.9921458848405842</v>
+        <v>1.036711362893342</v>
       </c>
       <c r="F15">
-        <v>1.008264529837244</v>
+        <v>1.048071016384524</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044877701857852</v>
+        <v>1.034568156994772</v>
       </c>
       <c r="J15">
-        <v>0.9985059306529366</v>
+        <v>1.032836718311293</v>
       </c>
       <c r="K15">
-        <v>1.034928636609879</v>
+        <v>1.045365178167059</v>
       </c>
       <c r="L15">
-        <v>1.007144693102658</v>
+        <v>1.04026006545416</v>
       </c>
       <c r="M15">
-        <v>1.022961183130844</v>
+        <v>1.051578369724122</v>
       </c>
       <c r="N15">
-        <v>0.9999239236046951</v>
+        <v>1.034303464919323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9714075456389232</v>
+        <v>1.026906056461786</v>
       </c>
       <c r="D16">
-        <v>1.022416440629956</v>
+        <v>1.042212555197869</v>
       </c>
       <c r="E16">
-        <v>0.9949201538869485</v>
+        <v>1.037277061425526</v>
       </c>
       <c r="F16">
-        <v>1.010993211757389</v>
+        <v>1.048621420524879</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045442795279045</v>
+        <v>1.03462951134824</v>
       </c>
       <c r="J16">
-        <v>1.000722791784552</v>
+        <v>1.033285899252765</v>
       </c>
       <c r="K16">
-        <v>1.036356895436568</v>
+        <v>1.045628071924374</v>
       </c>
       <c r="L16">
-        <v>1.009344786833746</v>
+        <v>1.040710028781143</v>
       </c>
       <c r="M16">
-        <v>1.025130673909884</v>
+        <v>1.052014547121923</v>
       </c>
       <c r="N16">
-        <v>1.002143932933395</v>
+        <v>1.034753283749253</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9735820037956192</v>
+        <v>1.027327275671314</v>
       </c>
       <c r="D17">
-        <v>1.023633760273095</v>
+        <v>1.042449164304216</v>
       </c>
       <c r="E17">
-        <v>0.9966396659899402</v>
+        <v>1.037632169475931</v>
       </c>
       <c r="F17">
-        <v>1.012684415398671</v>
+        <v>1.048966826959877</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045789327052635</v>
+        <v>1.03466752453198</v>
       </c>
       <c r="J17">
-        <v>1.002094657168014</v>
+        <v>1.033567695975488</v>
       </c>
       <c r="K17">
-        <v>1.037239716201849</v>
+        <v>1.04579268216105</v>
       </c>
       <c r="L17">
-        <v>1.010706871688623</v>
+        <v>1.040992331502372</v>
       </c>
       <c r="M17">
-        <v>1.026473636998443</v>
+        <v>1.052288091852397</v>
       </c>
       <c r="N17">
-        <v>1.003517746523056</v>
+        <v>1.035035480655645</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9748398640605043</v>
+        <v>1.027573042176202</v>
       </c>
       <c r="D18">
-        <v>1.024338588517988</v>
+        <v>1.042587150598642</v>
       </c>
       <c r="E18">
-        <v>0.9976353735143219</v>
+        <v>1.03783939152464</v>
       </c>
       <c r="F18">
-        <v>1.013663695705219</v>
+        <v>1.049168351219555</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04598863368403</v>
+        <v>1.034689526403453</v>
       </c>
       <c r="J18">
-        <v>1.002888286333715</v>
+        <v>1.033732076574673</v>
       </c>
       <c r="K18">
-        <v>1.037750026936573</v>
+        <v>1.04588858943718</v>
       </c>
       <c r="L18">
-        <v>1.01149504870624</v>
+        <v>1.041157012648146</v>
       </c>
       <c r="M18">
-        <v>1.027250671586301</v>
+        <v>1.052447624678941</v>
       </c>
       <c r="N18">
-        <v>1.004312502733203</v>
+        <v>1.035200094694135</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9752670173420741</v>
+        <v>1.027656855174909</v>
       </c>
       <c r="D19">
-        <v>1.024578042809508</v>
+        <v>1.04263419627187</v>
       </c>
       <c r="E19">
-        <v>0.9979736728087711</v>
+        <v>1.03791006472613</v>
       </c>
       <c r="F19">
-        <v>1.01399640637753</v>
+        <v>1.049237074994284</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046056117597501</v>
+        <v>1.034696999522325</v>
       </c>
       <c r="J19">
-        <v>1.003157798422442</v>
+        <v>1.033788128360737</v>
       </c>
       <c r="K19">
-        <v>1.037923254015178</v>
+        <v>1.045921273138641</v>
       </c>
       <c r="L19">
-        <v>1.011762743423349</v>
+        <v>1.041213167822048</v>
       </c>
       <c r="M19">
-        <v>1.027514567429363</v>
+        <v>1.05250201762367</v>
       </c>
       <c r="N19">
-        <v>1.00458239756001</v>
+        <v>1.035256226080165</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9733497946795975</v>
+        <v>1.027282074927503</v>
       </c>
       <c r="D20">
-        <v>1.023503695168853</v>
+        <v>1.042423780835293</v>
       </c>
       <c r="E20">
-        <v>0.9964559336378719</v>
+        <v>1.037594060062151</v>
       </c>
       <c r="F20">
-        <v>1.012503711110311</v>
+        <v>1.048929762468655</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045752440001987</v>
+        <v>1.03466346371622</v>
       </c>
       <c r="J20">
-        <v>1.001948151305624</v>
+        <v>1.033537460471292</v>
       </c>
       <c r="K20">
-        <v>1.037145478190205</v>
+        <v>1.045775032108543</v>
       </c>
       <c r="L20">
-        <v>1.010561388764741</v>
+        <v>1.0409620411483</v>
       </c>
       <c r="M20">
-        <v>1.026330204175117</v>
+        <v>1.052258745275233</v>
       </c>
       <c r="N20">
-        <v>1.003371032605538</v>
+        <v>1.035005202213565</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9669913956604962</v>
+        <v>1.026064526719607</v>
       </c>
       <c r="D21">
-        <v>1.019948813187107</v>
+        <v>1.041739424048475</v>
       </c>
       <c r="E21">
-        <v>0.9914348708328112</v>
+        <v>1.036567799601</v>
       </c>
       <c r="F21">
-        <v>1.007565195956064</v>
+        <v>1.047931303542535</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044731730344357</v>
+        <v>1.034552432096683</v>
       </c>
       <c r="J21">
-        <v>0.9979370912114417</v>
+        <v>1.0327226726419</v>
       </c>
       <c r="K21">
-        <v>1.034561855033325</v>
+        <v>1.045298332457958</v>
       </c>
       <c r="L21">
-        <v>1.006580349638665</v>
+        <v>1.040145825881892</v>
       </c>
       <c r="M21">
-        <v>1.022404646966709</v>
+        <v>1.051467596765587</v>
       </c>
       <c r="N21">
-        <v>0.9993542763459463</v>
+        <v>1.034189257291998</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9628920497270699</v>
+        <v>1.025299694373803</v>
       </c>
       <c r="D22">
-        <v>1.01766426578844</v>
+        <v>1.041308939013362</v>
       </c>
       <c r="E22">
-        <v>0.9882079530916712</v>
+        <v>1.035923397531643</v>
       </c>
       <c r="F22">
-        <v>1.004391359003969</v>
+        <v>1.04730403291236</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044063675243161</v>
+        <v>1.034481089507712</v>
       </c>
       <c r="J22">
-        <v>0.9953519906577305</v>
+        <v>1.032210506251158</v>
       </c>
       <c r="K22">
-        <v>1.032893728347598</v>
+        <v>1.044997656038098</v>
       </c>
       <c r="L22">
-        <v>1.004016688928843</v>
+        <v>1.039632812462097</v>
       </c>
       <c r="M22">
-        <v>1.019876321299117</v>
+        <v>1.050969986844684</v>
       </c>
       <c r="N22">
-        <v>0.9967655046529337</v>
+        <v>1.033676363566234</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9650751889626034</v>
+        <v>1.025705081221456</v>
       </c>
       <c r="D23">
-        <v>1.018880160493697</v>
+        <v>1.041537165933673</v>
       </c>
       <c r="E23">
-        <v>0.9899254703092821</v>
+        <v>1.036264926531102</v>
       </c>
       <c r="F23">
-        <v>1.006080603844929</v>
+        <v>1.047636513105881</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044420361572532</v>
+        <v>1.034519054638107</v>
       </c>
       <c r="J23">
-        <v>0.9967285999608481</v>
+        <v>1.032482003540328</v>
       </c>
       <c r="K23">
-        <v>1.033782279702191</v>
+        <v>1.045157140552003</v>
       </c>
       <c r="L23">
-        <v>1.005381674694898</v>
+        <v>1.039904753909906</v>
       </c>
       <c r="M23">
-        <v>1.021222514442543</v>
+        <v>1.051233796308429</v>
       </c>
       <c r="N23">
-        <v>0.9981440688991607</v>
+        <v>1.033948246412697</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9734547522452618</v>
+        <v>1.027302498961579</v>
       </c>
       <c r="D24">
-        <v>1.023562482077273</v>
+        <v>1.042435250605976</v>
       </c>
       <c r="E24">
-        <v>0.996538976750466</v>
+        <v>1.037611279776878</v>
       </c>
       <c r="F24">
-        <v>1.012585385714216</v>
+        <v>1.04894651014842</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045769116376127</v>
+        <v>1.034665299151171</v>
       </c>
       <c r="J24">
-        <v>1.002014371217623</v>
+        <v>1.033551122552923</v>
       </c>
       <c r="K24">
-        <v>1.037188074558608</v>
+        <v>1.045783007738534</v>
       </c>
       <c r="L24">
-        <v>1.010627145677155</v>
+        <v>1.040975727997565</v>
       </c>
       <c r="M24">
-        <v>1.026395034705224</v>
+        <v>1.052272005795776</v>
       </c>
       <c r="N24">
-        <v>1.003437346557407</v>
+        <v>1.035018883696919</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9827713177353592</v>
+        <v>1.029159213100506</v>
       </c>
       <c r="D25">
-        <v>1.028792597807074</v>
+        <v>1.043476488318709</v>
       </c>
       <c r="E25">
-        <v>1.0039309466735</v>
+        <v>1.039177313613978</v>
       </c>
       <c r="F25">
-        <v>1.019854339578065</v>
+        <v>1.050468823191771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04722404703946</v>
+        <v>1.034828314248869</v>
       </c>
       <c r="J25">
-        <v>1.007892739872375</v>
+        <v>1.034792297343534</v>
       </c>
       <c r="K25">
-        <v>1.040959803054899</v>
+        <v>1.046505086410887</v>
       </c>
       <c r="L25">
-        <v>1.016468544713833</v>
+        <v>1.042219266651336</v>
       </c>
       <c r="M25">
-        <v>1.03215206698871</v>
+        <v>1.053475955058337</v>
       </c>
       <c r="N25">
-        <v>1.009324063169907</v>
+        <v>1.036261821098097</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_231/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_231/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030642544694266</v>
+        <v>0.9899079195484314</v>
       </c>
       <c r="D2">
-        <v>1.044306156886103</v>
+        <v>1.032811889739113</v>
       </c>
       <c r="E2">
-        <v>1.04042930257216</v>
+        <v>1.009620712853993</v>
       </c>
       <c r="F2">
-        <v>1.051684690084117</v>
+        <v>1.025446607832154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034952914384028</v>
+        <v>1.048299839308327</v>
       </c>
       <c r="J2">
-        <v>1.035782660434934</v>
+        <v>1.01239473077156</v>
       </c>
       <c r="K2">
-        <v>1.047077578173522</v>
+        <v>1.043832272833882</v>
       </c>
       <c r="L2">
-        <v>1.043211676064769</v>
+        <v>1.020947623467311</v>
       </c>
       <c r="M2">
-        <v>1.054435508702294</v>
+        <v>1.036562458440769</v>
       </c>
       <c r="N2">
-        <v>1.037253590618683</v>
+        <v>1.013832447412555</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031720982316364</v>
+        <v>0.9949343167724956</v>
       </c>
       <c r="D3">
-        <v>1.044908063961058</v>
+        <v>1.035647294483874</v>
       </c>
       <c r="E3">
-        <v>1.041340039432241</v>
+        <v>1.013642278827116</v>
       </c>
       <c r="F3">
-        <v>1.052568465981809</v>
+        <v>1.029396902260517</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035040230140196</v>
+        <v>1.049033750406605</v>
       </c>
       <c r="J3">
-        <v>1.036501980480662</v>
+        <v>1.015564036528722</v>
       </c>
       <c r="K3">
-        <v>1.047491242902842</v>
+        <v>1.045843507024352</v>
       </c>
       <c r="L3">
-        <v>1.043932570540555</v>
+        <v>1.02410352988502</v>
       </c>
       <c r="M3">
-        <v>1.05513179732754</v>
+        <v>1.03966696900023</v>
       </c>
       <c r="N3">
-        <v>1.037973932181383</v>
+        <v>1.017006253947416</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032419455834217</v>
+        <v>0.9981194125206836</v>
       </c>
       <c r="D4">
-        <v>1.045297293857799</v>
+        <v>1.03744522548046</v>
       </c>
       <c r="E4">
-        <v>1.041930120588173</v>
+        <v>1.016196699538743</v>
       </c>
       <c r="F4">
-        <v>1.05314075970318</v>
+        <v>1.031904734889405</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035095265534745</v>
+        <v>1.049487363993858</v>
       </c>
       <c r="J4">
-        <v>1.036967532284899</v>
+        <v>1.01757134655987</v>
       </c>
       <c r="K4">
-        <v>1.047757971813062</v>
+        <v>1.047111786231794</v>
       </c>
       <c r="L4">
-        <v>1.044399180545315</v>
+        <v>1.026103497135041</v>
       </c>
       <c r="M4">
-        <v>1.055582136257027</v>
+        <v>1.041632762986539</v>
       </c>
       <c r="N4">
-        <v>1.038440145122582</v>
+        <v>1.01901641458905</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032713250099852</v>
+        <v>0.9994429487430752</v>
       </c>
       <c r="D5">
-        <v>1.045460865933381</v>
+        <v>1.03819250013825</v>
       </c>
       <c r="E5">
-        <v>1.042178374919821</v>
+        <v>1.0172595474041</v>
       </c>
       <c r="F5">
-        <v>1.053381453954182</v>
+        <v>1.03294785004589</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035118051365076</v>
+        <v>1.049673048438916</v>
       </c>
       <c r="J5">
-        <v>1.037163274538273</v>
+        <v>1.018405183502713</v>
       </c>
       <c r="K5">
-        <v>1.047869878398807</v>
+        <v>1.047637224379669</v>
       </c>
       <c r="L5">
-        <v>1.044595376873837</v>
+        <v>1.026934541516376</v>
       </c>
       <c r="M5">
-        <v>1.055771408185176</v>
+        <v>1.04244919206519</v>
       </c>
       <c r="N5">
-        <v>1.038636165352408</v>
+        <v>1.019851435675994</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032762588593325</v>
+        <v>0.9996642865815504</v>
       </c>
       <c r="D6">
-        <v>1.045488326826387</v>
+        <v>1.038317474340406</v>
       </c>
       <c r="E6">
-        <v>1.042220068688818</v>
+        <v>1.0174373690207</v>
       </c>
       <c r="F6">
-        <v>1.053421873518082</v>
+        <v>1.033122348867773</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035121856602268</v>
+        <v>1.049703933820224</v>
       </c>
       <c r="J6">
-        <v>1.037196141931905</v>
+        <v>1.018544610097315</v>
       </c>
       <c r="K6">
-        <v>1.04788865470323</v>
+        <v>1.047724998662157</v>
       </c>
       <c r="L6">
-        <v>1.044628321041791</v>
+        <v>1.027073515834145</v>
       </c>
       <c r="M6">
-        <v>1.055803184776503</v>
+        <v>1.042585696993578</v>
       </c>
       <c r="N6">
-        <v>1.038669079421509</v>
+        <v>1.019991060272352</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032423380914785</v>
+        <v>0.9981371576745149</v>
       </c>
       <c r="D7">
-        <v>1.045299479754479</v>
+        <v>1.037455244004536</v>
       </c>
       <c r="E7">
-        <v>1.041933437052083</v>
+        <v>1.016210944174505</v>
       </c>
       <c r="F7">
-        <v>1.053143975472585</v>
+        <v>1.031918716477406</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035095571380301</v>
+        <v>1.049489864721039</v>
       </c>
       <c r="J7">
-        <v>1.036970147707756</v>
+        <v>1.017582527296908</v>
       </c>
       <c r="K7">
-        <v>1.047759468004924</v>
+        <v>1.047118837363302</v>
       </c>
       <c r="L7">
-        <v>1.044401801999664</v>
+        <v>1.026114639430996</v>
       </c>
       <c r="M7">
-        <v>1.055584665517909</v>
+        <v>1.041643711007347</v>
       </c>
       <c r="N7">
-        <v>1.038442764259639</v>
+        <v>1.019027611204017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031006872587745</v>
+        <v>0.9916209484511322</v>
       </c>
       <c r="D8">
-        <v>1.044509623746641</v>
+        <v>1.033777880342753</v>
       </c>
       <c r="E8">
-        <v>1.040736929617138</v>
+        <v>1.010989973053085</v>
       </c>
       <c r="F8">
-        <v>1.051983276099613</v>
+        <v>1.026791857522421</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034982725852348</v>
+        <v>1.048552322179335</v>
       </c>
       <c r="J8">
-        <v>1.036025736231226</v>
+        <v>1.013475033015923</v>
       </c>
       <c r="K8">
-        <v>1.047217571952792</v>
+        <v>1.044518950865873</v>
       </c>
       <c r="L8">
-        <v>1.04345527564055</v>
+        <v>1.022023107860661</v>
       </c>
       <c r="M8">
-        <v>1.054670864741075</v>
+        <v>1.037620744902714</v>
       </c>
       <c r="N8">
-        <v>1.037497011610487</v>
+        <v>1.014914283810016</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028515806159424</v>
+        <v>0.9795924172442744</v>
       </c>
       <c r="D9">
-        <v>1.043116001091382</v>
+        <v>1.027005566497663</v>
       </c>
       <c r="E9">
-        <v>1.038634497321932</v>
+        <v>1.001404161221914</v>
       </c>
       <c r="F9">
-        <v>1.049941341112887</v>
+        <v>1.017369942770239</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034772694782719</v>
+        <v>1.046733529864503</v>
       </c>
       <c r="J9">
-        <v>1.034362379801828</v>
+        <v>1.005886989075349</v>
       </c>
       <c r="K9">
-        <v>1.046255538968038</v>
+        <v>1.039675181527704</v>
       </c>
       <c r="L9">
-        <v>1.04178850491329</v>
+        <v>1.014474497896091</v>
       </c>
       <c r="M9">
-        <v>1.053059101217389</v>
+        <v>1.030187353522203</v>
       </c>
       <c r="N9">
-        <v>1.03583129302417</v>
+        <v>1.007315463976686</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026858464983114</v>
+        <v>0.971160371435649</v>
       </c>
       <c r="D10">
-        <v>1.042185812911755</v>
+        <v>1.022278158273732</v>
       </c>
       <c r="E10">
-        <v>1.037236943474344</v>
+        <v>0.9947248358691815</v>
       </c>
       <c r="F10">
-        <v>1.048582393682214</v>
+        <v>1.010801105659335</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034625192426621</v>
+        <v>1.045403249457617</v>
       </c>
       <c r="J10">
-        <v>1.033254055326025</v>
+        <v>1.000566857284204</v>
       </c>
       <c r="K10">
-        <v>1.045609454921895</v>
+        <v>1.036256495935763</v>
       </c>
       <c r="L10">
-        <v>1.040678128409117</v>
+        <v>1.009189992740141</v>
       </c>
       <c r="M10">
-        <v>1.051983631093532</v>
+        <v>1.024978043377708</v>
       </c>
       <c r="N10">
-        <v>1.034721394600485</v>
+        <v>1.00198777698817</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026141617802582</v>
+        <v>0.9674000095622631</v>
       </c>
       <c r="D11">
-        <v>1.041782789851109</v>
+        <v>1.020176860898091</v>
       </c>
       <c r="E11">
-        <v>1.036632763419406</v>
+        <v>0.991756964155847</v>
       </c>
       <c r="F11">
-        <v>1.047994526534114</v>
+        <v>1.007881997871401</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034559555460087</v>
+        <v>1.044797912681496</v>
       </c>
       <c r="J11">
-        <v>1.032774282050333</v>
+        <v>0.9981948128747796</v>
       </c>
       <c r="K11">
-        <v>1.045328587199913</v>
+        <v>1.034728045011143</v>
       </c>
       <c r="L11">
-        <v>1.040197522799414</v>
+        <v>1.006836024481119</v>
       </c>
       <c r="M11">
-        <v>1.051517726597053</v>
+        <v>1.022656786468503</v>
       </c>
       <c r="N11">
-        <v>1.03424093999171</v>
+        <v>0.9996123640036071</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025875467852431</v>
+        <v>0.9659857888318648</v>
       </c>
       <c r="D12">
-        <v>1.041633053953051</v>
+        <v>1.019387831848024</v>
       </c>
       <c r="E12">
-        <v>1.036408490645931</v>
+        <v>0.9906425327680423</v>
       </c>
       <c r="F12">
-        <v>1.047776252832217</v>
+        <v>1.006785877658091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034534910021946</v>
+        <v>1.04456853109202</v>
       </c>
       <c r="J12">
-        <v>1.032596094126688</v>
+        <v>0.9973028649338291</v>
       </c>
       <c r="K12">
-        <v>1.045224095009674</v>
+        <v>1.034152784953675</v>
       </c>
       <c r="L12">
-        <v>1.040019034409274</v>
+        <v>1.005951230039644</v>
       </c>
       <c r="M12">
-        <v>1.051344637122635</v>
+        <v>1.021784215574205</v>
       </c>
       <c r="N12">
-        <v>1.034062499020775</v>
+        <v>0.9987191493942723</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025932552535493</v>
+        <v>0.9662899515318927</v>
       </c>
       <c r="D13">
-        <v>1.041665174376834</v>
+        <v>1.01955747250546</v>
       </c>
       <c r="E13">
-        <v>1.036456591269195</v>
+        <v>0.9908821377112195</v>
       </c>
       <c r="F13">
-        <v>1.04782306935486</v>
+        <v>1.007021544809829</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034540208531899</v>
+        <v>1.044617941489664</v>
       </c>
       <c r="J13">
-        <v>1.032634315073589</v>
+        <v>0.9974946924322707</v>
       </c>
       <c r="K13">
-        <v>1.045246516405036</v>
+        <v>1.0342765256675</v>
       </c>
       <c r="L13">
-        <v>1.040057319409514</v>
+        <v>1.006141502509345</v>
       </c>
       <c r="M13">
-        <v>1.051381766824186</v>
+        <v>1.021971861884223</v>
       </c>
       <c r="N13">
-        <v>1.034100774245805</v>
+        <v>0.9989112493097648</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026119615337173</v>
+        <v>0.9672834720429585</v>
       </c>
       <c r="D14">
-        <v>1.041770413343178</v>
+        <v>1.020111815331768</v>
       </c>
       <c r="E14">
-        <v>1.03661422196635</v>
+        <v>0.9916650943532959</v>
       </c>
       <c r="F14">
-        <v>1.047976482193239</v>
+        <v>1.007791637270799</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034557523661859</v>
+        <v>1.044779045164409</v>
       </c>
       <c r="J14">
-        <v>1.032759552545399</v>
+        <v>0.9981213093948966</v>
       </c>
       <c r="K14">
-        <v>1.045319953210243</v>
+        <v>1.034680649120182</v>
       </c>
       <c r="L14">
-        <v>1.040182768278892</v>
+        <v>1.006763103100129</v>
       </c>
       <c r="M14">
-        <v>1.051503419609584</v>
+        <v>1.022584873690898</v>
       </c>
       <c r="N14">
-        <v>1.034226189569189</v>
+        <v>0.9995387561403517</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02623488667175</v>
+        <v>0.9678932672372484</v>
       </c>
       <c r="D15">
-        <v>1.041835249931137</v>
+        <v>1.020452225039503</v>
       </c>
       <c r="E15">
-        <v>1.036711362893342</v>
+        <v>0.9921458848405846</v>
       </c>
       <c r="F15">
-        <v>1.048071016384524</v>
+        <v>1.008264529837245</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034568156994772</v>
+        <v>1.044877701857852</v>
       </c>
       <c r="J15">
-        <v>1.032836718311293</v>
+        <v>0.998505930652937</v>
       </c>
       <c r="K15">
-        <v>1.045365178167059</v>
+        <v>1.034928636609879</v>
       </c>
       <c r="L15">
-        <v>1.04026006545416</v>
+        <v>1.007144693102658</v>
       </c>
       <c r="M15">
-        <v>1.051578369724122</v>
+        <v>1.022961183130845</v>
       </c>
       <c r="N15">
-        <v>1.034303464919323</v>
+        <v>0.9999239236046953</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026906056461786</v>
+        <v>0.9714075456389234</v>
       </c>
       <c r="D16">
-        <v>1.042212555197869</v>
+        <v>1.022416440629956</v>
       </c>
       <c r="E16">
-        <v>1.037277061425526</v>
+        <v>0.9949201538869487</v>
       </c>
       <c r="F16">
-        <v>1.048621420524879</v>
+        <v>1.010993211757389</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03462951134824</v>
+        <v>1.045442795279045</v>
       </c>
       <c r="J16">
-        <v>1.033285899252765</v>
+        <v>1.000722791784552</v>
       </c>
       <c r="K16">
-        <v>1.045628071924374</v>
+        <v>1.036356895436569</v>
       </c>
       <c r="L16">
-        <v>1.040710028781143</v>
+        <v>1.009344786833746</v>
       </c>
       <c r="M16">
-        <v>1.052014547121923</v>
+        <v>1.025130673909884</v>
       </c>
       <c r="N16">
-        <v>1.034753283749253</v>
+        <v>1.002143932933395</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027327275671314</v>
+        <v>0.9735820037956199</v>
       </c>
       <c r="D17">
-        <v>1.042449164304216</v>
+        <v>1.023633760273095</v>
       </c>
       <c r="E17">
-        <v>1.037632169475931</v>
+        <v>0.9966396659899408</v>
       </c>
       <c r="F17">
-        <v>1.048966826959877</v>
+        <v>1.012684415398671</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03466752453198</v>
+        <v>1.045789327052635</v>
       </c>
       <c r="J17">
-        <v>1.033567695975488</v>
+        <v>1.002094657168015</v>
       </c>
       <c r="K17">
-        <v>1.04579268216105</v>
+        <v>1.037239716201849</v>
       </c>
       <c r="L17">
-        <v>1.040992331502372</v>
+        <v>1.010706871688624</v>
       </c>
       <c r="M17">
-        <v>1.052288091852397</v>
+        <v>1.026473636998444</v>
       </c>
       <c r="N17">
-        <v>1.035035480655645</v>
+        <v>1.003517746523057</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027573042176202</v>
+        <v>0.9748398640605042</v>
       </c>
       <c r="D18">
-        <v>1.042587150598642</v>
+        <v>1.024338588517988</v>
       </c>
       <c r="E18">
-        <v>1.03783939152464</v>
+        <v>0.9976353735143216</v>
       </c>
       <c r="F18">
-        <v>1.049168351219555</v>
+        <v>1.013663695705218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034689526403453</v>
+        <v>1.04598863368403</v>
       </c>
       <c r="J18">
-        <v>1.033732076574673</v>
+        <v>1.002888286333715</v>
       </c>
       <c r="K18">
-        <v>1.04588858943718</v>
+        <v>1.037750026936573</v>
       </c>
       <c r="L18">
-        <v>1.041157012648146</v>
+        <v>1.01149504870624</v>
       </c>
       <c r="M18">
-        <v>1.052447624678941</v>
+        <v>1.027250671586301</v>
       </c>
       <c r="N18">
-        <v>1.035200094694135</v>
+        <v>1.004312502733203</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027656855174909</v>
+        <v>0.9752670173420741</v>
       </c>
       <c r="D19">
-        <v>1.04263419627187</v>
+        <v>1.024578042809508</v>
       </c>
       <c r="E19">
-        <v>1.03791006472613</v>
+        <v>0.9979736728087711</v>
       </c>
       <c r="F19">
-        <v>1.049237074994284</v>
+        <v>1.01399640637753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034696999522325</v>
+        <v>1.046056117597501</v>
       </c>
       <c r="J19">
-        <v>1.033788128360737</v>
+        <v>1.003157798422442</v>
       </c>
       <c r="K19">
-        <v>1.045921273138641</v>
+        <v>1.037923254015178</v>
       </c>
       <c r="L19">
-        <v>1.041213167822048</v>
+        <v>1.011762743423349</v>
       </c>
       <c r="M19">
-        <v>1.05250201762367</v>
+        <v>1.027514567429363</v>
       </c>
       <c r="N19">
-        <v>1.035256226080165</v>
+        <v>1.00458239756001</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027282074927503</v>
+        <v>0.973349794679598</v>
       </c>
       <c r="D20">
-        <v>1.042423780835293</v>
+        <v>1.023503695168853</v>
       </c>
       <c r="E20">
-        <v>1.037594060062151</v>
+        <v>0.9964559336378724</v>
       </c>
       <c r="F20">
-        <v>1.048929762468655</v>
+        <v>1.012503711110312</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03466346371622</v>
+        <v>1.045752440001987</v>
       </c>
       <c r="J20">
-        <v>1.033537460471292</v>
+        <v>1.001948151305625</v>
       </c>
       <c r="K20">
-        <v>1.045775032108543</v>
+        <v>1.037145478190205</v>
       </c>
       <c r="L20">
-        <v>1.0409620411483</v>
+        <v>1.010561388764741</v>
       </c>
       <c r="M20">
-        <v>1.052258745275233</v>
+        <v>1.026330204175117</v>
       </c>
       <c r="N20">
-        <v>1.035005202213565</v>
+        <v>1.003371032605538</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026064526719607</v>
+        <v>0.9669913956604959</v>
       </c>
       <c r="D21">
-        <v>1.041739424048475</v>
+        <v>1.019948813187106</v>
       </c>
       <c r="E21">
-        <v>1.036567799601</v>
+        <v>0.9914348708328107</v>
       </c>
       <c r="F21">
-        <v>1.047931303542535</v>
+        <v>1.007565195956064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034552432096683</v>
+        <v>1.044731730344357</v>
       </c>
       <c r="J21">
-        <v>1.0327226726419</v>
+        <v>0.9979370912114416</v>
       </c>
       <c r="K21">
-        <v>1.045298332457958</v>
+        <v>1.034561855033325</v>
       </c>
       <c r="L21">
-        <v>1.040145825881892</v>
+        <v>1.006580349638664</v>
       </c>
       <c r="M21">
-        <v>1.051467596765587</v>
+        <v>1.022404646966708</v>
       </c>
       <c r="N21">
-        <v>1.034189257291998</v>
+        <v>0.9993542763459461</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025299694373803</v>
+        <v>0.9628920497270701</v>
       </c>
       <c r="D22">
-        <v>1.041308939013362</v>
+        <v>1.01766426578844</v>
       </c>
       <c r="E22">
-        <v>1.035923397531643</v>
+        <v>0.9882079530916713</v>
       </c>
       <c r="F22">
-        <v>1.04730403291236</v>
+        <v>1.004391359003969</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034481089507712</v>
+        <v>1.044063675243161</v>
       </c>
       <c r="J22">
-        <v>1.032210506251158</v>
+        <v>0.9953519906577307</v>
       </c>
       <c r="K22">
-        <v>1.044997656038098</v>
+        <v>1.032893728347598</v>
       </c>
       <c r="L22">
-        <v>1.039632812462097</v>
+        <v>1.004016688928843</v>
       </c>
       <c r="M22">
-        <v>1.050969986844684</v>
+        <v>1.019876321299117</v>
       </c>
       <c r="N22">
-        <v>1.033676363566234</v>
+        <v>0.9967655046529339</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025705081221456</v>
+        <v>0.9650751889626029</v>
       </c>
       <c r="D23">
-        <v>1.041537165933673</v>
+        <v>1.018880160493697</v>
       </c>
       <c r="E23">
-        <v>1.036264926531102</v>
+        <v>0.9899254703092821</v>
       </c>
       <c r="F23">
-        <v>1.047636513105881</v>
+        <v>1.006080603844928</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034519054638107</v>
+        <v>1.044420361572532</v>
       </c>
       <c r="J23">
-        <v>1.032482003540328</v>
+        <v>0.9967285999608478</v>
       </c>
       <c r="K23">
-        <v>1.045157140552003</v>
+        <v>1.033782279702191</v>
       </c>
       <c r="L23">
-        <v>1.039904753909906</v>
+        <v>1.005381674694898</v>
       </c>
       <c r="M23">
-        <v>1.051233796308429</v>
+        <v>1.021222514442543</v>
       </c>
       <c r="N23">
-        <v>1.033948246412697</v>
+        <v>0.9981440688991605</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027302498961579</v>
+        <v>0.9734547522452617</v>
       </c>
       <c r="D24">
-        <v>1.042435250605976</v>
+        <v>1.023562482077273</v>
       </c>
       <c r="E24">
-        <v>1.037611279776878</v>
+        <v>0.9965389767504659</v>
       </c>
       <c r="F24">
-        <v>1.04894651014842</v>
+        <v>1.012585385714216</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034665299151171</v>
+        <v>1.045769116376127</v>
       </c>
       <c r="J24">
-        <v>1.033551122552923</v>
+        <v>1.002014371217623</v>
       </c>
       <c r="K24">
-        <v>1.045783007738534</v>
+        <v>1.037188074558608</v>
       </c>
       <c r="L24">
-        <v>1.040975727997565</v>
+        <v>1.010627145677155</v>
       </c>
       <c r="M24">
-        <v>1.052272005795776</v>
+        <v>1.026395034705224</v>
       </c>
       <c r="N24">
-        <v>1.035018883696919</v>
+        <v>1.003437346557407</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029159213100506</v>
+        <v>0.9827713177353595</v>
       </c>
       <c r="D25">
-        <v>1.043476488318709</v>
+        <v>1.028792597807075</v>
       </c>
       <c r="E25">
-        <v>1.039177313613978</v>
+        <v>1.003930946673501</v>
       </c>
       <c r="F25">
-        <v>1.050468823191771</v>
+        <v>1.019854339578065</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034828314248869</v>
+        <v>1.04722404703946</v>
       </c>
       <c r="J25">
-        <v>1.034792297343534</v>
+        <v>1.007892739872375</v>
       </c>
       <c r="K25">
-        <v>1.046505086410887</v>
+        <v>1.040959803054899</v>
       </c>
       <c r="L25">
-        <v>1.042219266651336</v>
+        <v>1.016468544713833</v>
       </c>
       <c r="M25">
-        <v>1.053475955058337</v>
+        <v>1.032152066988711</v>
       </c>
       <c r="N25">
-        <v>1.036261821098097</v>
+        <v>1.009324063169907</v>
       </c>
     </row>
   </sheetData>
